--- a/magnetic/PCB/BOM/BOM.xlsx
+++ b/magnetic/PCB/BOM/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Node" sheetId="3" r:id="rId1"/>
@@ -469,29 +469,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -522,69 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,14 +515,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +536,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,11 +621,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,14 +634,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -664,6 +641,174 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -673,181 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,32 +888,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,33 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1008,155 +937,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1171,13 +1148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1273,7 +1247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6594475" y="4556760"/>
+          <a:off x="6594475" y="4732020"/>
           <a:ext cx="3894455" cy="3108960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1550,7 +1524,7 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1569,7 +1543,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2144,7 +2118,7 @@
       <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="5"/>
@@ -2363,14 +2337,14 @@
       <c r="B45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="9">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2388,8 +2362,8 @@
   <sheetPr/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2695,7 +2669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" ht="27.6" spans="1:5">
+    <row r="18" ht="41.4" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
